--- a/URS/DbLayouts/L2-業務作業/ClNoMap.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClNoMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917D6E5F-F15F-4CB5-BFC6-E6D4BF27D78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D592C-A21E-4157-8B9F-77BDF817AF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -195,46 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GDRID1,GDRID2,GDRNUM,LGTSEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainGDRID1,MainGDRID2,MainGDRNUM,MainLGTSEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDRID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDRID2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDRNUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGTSEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainGDRID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainGDRID2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainGDRNUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainLGTSEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ClNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,39 +264,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GDRID1,GDRID2,GDRNUM,LGTSEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findNewClNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainGDRID1 = ,AND MainGDRID2 = ,AND MainGDRNUM = ,AND MainLGTSEQ =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findMainLGTSEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findMainGDRNUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MainGDRID1 = ,AND MainGDRID2 = ,AND MainGDRNUM = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findGDRNUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GDRID1 = ,AND GDRID2 = ,AND GDRNUM = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +306,74 @@
 7:未轉入,資料不完整(地號)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdrId1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdrId2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdrNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LgtSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainGdrId1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainGdrId2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainGdrNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainLgtSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdrId1,GdrId2,GdrNum,LgtSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainGdrId1,MainGdrId2,MainGdrNum,MainLgtSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findGdrNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GdrId1 = ,AND GdrId2 = ,AND GdrNum = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findMainLgtseq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainGdrId1 = ,AND MainGdrId2 = ,AND MainGdrNum = ,AND MainLgtSeq =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findMainGdrNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MainGdrId1 = ,AND MainGdrId2 = ,AND MainGdrNum = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdrId1 ASC,GdrId2 ASC,GdrNum ASC,LgtSeq ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>25</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1063,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>26</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1084,10 +1084,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>26</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1105,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>26</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1126,10 +1126,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>26</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1147,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>26</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1168,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>26</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>26</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1210,10 +1210,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>26</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1231,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>26</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>26</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1273,10 +1273,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>26</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1294,20 +1294,20 @@
         <v>12</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1826,14 +1826,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1850,46 +1850,46 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
